--- a/Dokumente/Anforderungsdokumentation/Zeitaufwandsschaetzung.xlsx
+++ b/Dokumente/Anforderungsdokumentation/Zeitaufwandsschaetzung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Github\259035_SoftEngPR\Dokumente\Systemdokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majad\Documents\GitHub\259035_SoftEngPR\Dokumente\Anforderungsdokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -263,7 +263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -577,11 +577,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="67.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
@@ -618,10 +618,12 @@
       <c r="B4" s="6">
         <v>40</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6">
+        <v>24</v>
+      </c>
       <c r="D4" s="6">
         <f t="shared" ref="D4:D13" si="0">B4-C4</f>
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -631,10 +633,12 @@
       <c r="B5" s="6">
         <v>11.25</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="6">
+        <v>12</v>
+      </c>
       <c r="D5" s="6">
-        <f t="shared" si="0"/>
-        <v>11.25</v>
+        <f>C5-B5</f>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -644,10 +648,12 @@
       <c r="B6" s="6">
         <v>15</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6">
+        <v>8</v>
+      </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -657,10 +663,12 @@
       <c r="B7" s="6">
         <v>6.25</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="6">
+        <v>4</v>
+      </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>6.25</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -670,10 +678,12 @@
       <c r="B8" s="6">
         <v>7.5</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="6">
+        <v>2</v>
+      </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -683,10 +693,12 @@
       <c r="B9" s="6">
         <v>20</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6">
+        <v>2</v>
+      </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -696,10 +708,12 @@
       <c r="B10" s="6">
         <v>6.25</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>6.25</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -709,10 +723,12 @@
       <c r="B11" s="6">
         <v>7.5</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="6">
+        <v>2</v>
+      </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -722,10 +738,12 @@
       <c r="B12" s="6">
         <v>6.25</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="6">
+        <v>3</v>
+      </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>6.25</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -735,10 +753,12 @@
       <c r="B13" s="6">
         <v>5</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="6">
+        <v>3</v>
+      </c>
       <c r="D13" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -751,11 +771,11 @@
       </c>
       <c r="C14" s="8">
         <f>SUM(C4:C13)</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D14" s="8">
         <f>SUM(D4:D13)</f>
-        <v>125</v>
+        <v>65.5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -1029,7 +1049,7 @@
       <c r="C40" s="11"/>
       <c r="D40" s="10">
         <f>D37+D32+D21+D14+D28</f>
-        <v>292.5</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -1044,7 +1064,7 @@
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dokumente/Anforderungsdokumentation/Zeitaufwandsschaetzung.xlsx
+++ b/Dokumente/Anforderungsdokumentation/Zeitaufwandsschaetzung.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majad\Documents\GitHub\259035_SoftEngPR\Dokumente\Anforderungsdokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Anforderungsdokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A8E9C9-317F-4DC2-955E-8B16507B16A6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -162,7 +163,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -238,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -260,10 +261,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -574,22 +574,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
@@ -603,7 +603,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -611,67 +611,67 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="6">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C4" s="6">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" ref="D4:D13" si="0">B4-C4</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <f>C4-B4</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="6">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="C5" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D5" s="6">
-        <f>C5-B5</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <f t="shared" ref="D5:D13" si="0">C5-B5</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="6">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="6">
-        <v>6.25</v>
+        <v>8</v>
       </c>
       <c r="C7" s="6">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -679,14 +679,14 @@
         <v>7.5</v>
       </c>
       <c r="C8" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-7.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -694,29 +694,29 @@
         <v>20</v>
       </c>
       <c r="C9" s="6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="6">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="C10" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -724,29 +724,29 @@
         <v>7.5</v>
       </c>
       <c r="C11" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-7.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="6">
-        <v>6.25</v>
+        <v>8</v>
       </c>
       <c r="C12" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>10</v>
       </c>
@@ -754,36 +754,36 @@
         <v>5</v>
       </c>
       <c r="C13" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D13" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="8">
         <f>SUM(B4:B13)</f>
-        <v>125</v>
+        <v>110.5</v>
       </c>
       <c r="C14" s="8">
         <f>SUM(C4:C13)</f>
-        <v>61</v>
+        <v>102.5</v>
       </c>
       <c r="D14" s="8">
         <f>SUM(D4:D13)</f>
-        <v>65.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -791,81 +791,81 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="6">
-        <v>22.5</v>
+        <v>20</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6">
-        <f>B17-C17</f>
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <f>C17-B17</f>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="6">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6">
-        <f>B18-C18</f>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <f t="shared" ref="D18:D20" si="1">C18-B18</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="6">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6">
-        <f>B19-C19</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="6">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6">
-        <f>B20-C20</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="8">
         <f>SUM(B17:B20)</f>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" s="8">
-        <f t="shared" ref="C21" si="1">SUM(C17:C20)</f>
+        <f t="shared" ref="C21" si="2">SUM(C17:C20)</f>
         <v>0</v>
       </c>
       <c r="D21" s="8">
         <f>SUM(D17:D20)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
@@ -873,81 +873,81 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6">
-        <f>B24-C24</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <f>C24-B24</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6">
-        <f>B25-C25</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <f t="shared" ref="D25:D27" si="3">C25-B25</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6">
-        <f>B26-C26</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6">
-        <f>B27-C27</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="8">
         <f>SUM(B24:B27)</f>
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C28" s="8">
-        <f t="shared" ref="C28" si="2">SUM(C24:C27)</f>
+        <f t="shared" ref="C28" si="4">SUM(C24:C27)</f>
         <v>0</v>
       </c>
       <c r="D28" s="8">
         <f>SUM(D24:D27)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>21</v>
       </c>
@@ -955,42 +955,42 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B31" s="6">
-        <v>27.5</v>
+        <v>15</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6">
-        <f>B31-C31</f>
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+        <f>C31-B31</f>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="8">
         <f>SUM(B31)</f>
-        <v>27.5</v>
+        <v>15</v>
       </c>
       <c r="C32" s="8">
-        <f t="shared" ref="C32" si="3">SUM(C31)</f>
+        <f t="shared" ref="C32" si="5">SUM(C31)</f>
         <v>0</v>
       </c>
       <c r="D32" s="8">
         <f>SUM(D31)</f>
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>23</v>
       </c>
@@ -998,58 +998,61 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>24</v>
       </c>
       <c r="B35" s="6">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6">
-        <f>B35-C35</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+        <f>C35-B35</f>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>25</v>
       </c>
       <c r="B36" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6">
-        <f>B36-C36</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+        <f>C36-B36</f>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B37" s="8">
         <f>SUM(B35:B36)</f>
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C37" s="8">
-        <f t="shared" ref="C37" si="4">SUM(C35:C36)</f>
+        <f t="shared" ref="C37" si="6">SUM(C35:C36)</f>
         <v>0</v>
       </c>
       <c r="D37" s="8">
         <f>SUM(D35:D36)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
+      <c r="B40" s="10">
+        <f t="shared" ref="B40:C40" si="7">B37+B32+B21+B14+B28</f>
+        <v>295.5</v>
+      </c>
+      <c r="C40" s="10"/>
       <c r="D40" s="10">
         <f>D37+D32+D21+D14+D28</f>
-        <v>233</v>
+        <v>-193</v>
       </c>
     </row>
   </sheetData>
@@ -1059,12 +1062,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dokumente/Anforderungsdokumentation/Zeitaufwandsschaetzung.xlsx
+++ b/Dokumente/Anforderungsdokumentation/Zeitaufwandsschaetzung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Anforderungsdokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\259035_SoftEngPR-Base\Dokumente\Anforderungsdokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A8E9C9-317F-4DC2-955E-8B16507B16A6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742C7D43-1763-443F-8F08-8A39E8298D98}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="20496" windowHeight="7536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -577,19 +577,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="67.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
@@ -603,7 +603,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -611,7 +611,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -626,7 +626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -641,7 +641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -656,7 +656,7 @@
         <v>-4.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -671,7 +671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -679,14 +679,14 @@
         <v>7.5</v>
       </c>
       <c r="C8" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>-7.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -701,7 +701,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -716,7 +716,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -724,14 +724,14 @@
         <v>7.5</v>
       </c>
       <c r="C11" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>-7.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -746,7 +746,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>10</v>
       </c>
@@ -761,7 +761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -771,19 +771,19 @@
       </c>
       <c r="C14" s="8">
         <f>SUM(C4:C13)</f>
-        <v>102.5</v>
+        <v>130.5</v>
       </c>
       <c r="D14" s="8">
         <f>SUM(D4:D13)</f>
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -791,59 +791,67 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="6">
         <v>20</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="6">
+        <v>24</v>
+      </c>
       <c r="D17" s="6">
         <f>C17-B17</f>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="6">
         <v>12</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
       <c r="D18" s="6">
         <f t="shared" ref="D18:D20" si="1">C18-B18</f>
         <v>-12</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="6">
         <v>8</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
       <c r="D19" s="6">
         <f t="shared" si="1"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="6">
         <v>8</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="6">
+        <v>34</v>
+      </c>
       <c r="D20" s="6">
         <f t="shared" si="1"/>
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
@@ -853,19 +861,19 @@
       </c>
       <c r="C21" s="8">
         <f t="shared" ref="C21" si="2">SUM(C17:C20)</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D21" s="8">
         <f>SUM(D17:D20)</f>
-        <v>-48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
@@ -873,7 +881,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
@@ -886,7 +894,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
@@ -899,7 +907,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
@@ -912,7 +920,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
@@ -925,7 +933,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
@@ -942,12 +950,12 @@
         <v>-62</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>21</v>
       </c>
@@ -955,7 +963,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
@@ -968,7 +976,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>27</v>
       </c>
@@ -985,12 +993,12 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>23</v>
       </c>
@@ -998,7 +1006,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -1011,7 +1019,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -1024,7 +1032,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>27</v>
       </c>
@@ -1041,18 +1049,18 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B40" s="10">
-        <f t="shared" ref="B40:C40" si="7">B37+B32+B21+B14+B28</f>
+        <f t="shared" ref="B40" si="7">B37+B32+B21+B14+B28</f>
         <v>295.5</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10">
         <f>D37+D32+D21+D14+D28</f>
-        <v>-193</v>
+        <v>-107</v>
       </c>
     </row>
   </sheetData>
@@ -1067,7 +1075,7 @@
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dokumente/Anforderungsdokumentation/Zeitaufwandsschaetzung.xlsx
+++ b/Dokumente/Anforderungsdokumentation/Zeitaufwandsschaetzung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\259035_SoftEngPR-Base\Dokumente\Anforderungsdokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742C7D43-1763-443F-8F08-8A39E8298D98}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7938E25C-F199-4CE6-8F0D-9739034DB901}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="936" yWindow="0" windowWidth="20496" windowHeight="7536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -888,10 +888,12 @@
       <c r="B24" s="6">
         <v>10</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="6">
+        <v>15</v>
+      </c>
       <c r="D24" s="6">
         <f>C24-B24</f>
-        <v>-10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -901,10 +903,12 @@
       <c r="B25" s="6">
         <v>12</v>
       </c>
-      <c r="C25" s="6"/>
+      <c r="C25" s="6">
+        <v>14</v>
+      </c>
       <c r="D25" s="6">
         <f t="shared" ref="D25:D27" si="3">C25-B25</f>
-        <v>-12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -914,7 +918,9 @@
       <c r="B26" s="6">
         <v>20</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
       <c r="D26" s="6">
         <f t="shared" si="3"/>
         <v>-20</v>
@@ -927,7 +933,9 @@
       <c r="B27" s="6">
         <v>20</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
       <c r="D27" s="6">
         <f t="shared" si="3"/>
         <v>-20</v>
@@ -943,11 +951,11 @@
       </c>
       <c r="C28" s="8">
         <f t="shared" ref="C28" si="4">SUM(C24:C27)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D28" s="8">
         <f>SUM(D24:D27)</f>
-        <v>-62</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1060,7 +1068,7 @@
       <c r="C40" s="10"/>
       <c r="D40" s="10">
         <f>D37+D32+D21+D14+D28</f>
-        <v>-107</v>
+        <v>-78</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumente/Anforderungsdokumentation/Zeitaufwandsschaetzung.xlsx
+++ b/Dokumente/Anforderungsdokumentation/Zeitaufwandsschaetzung.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\259035_SoftEngPR-Base\Dokumente\Anforderungsdokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majad\Documents\GitHub\259035_SoftEngPR\Dokumente\Anforderungsdokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7938E25C-F199-4CE6-8F0D-9739034DB901}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="20496" windowHeight="7536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="0" windowWidth="20500" windowHeight="7540"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -109,9 +108,6 @@
     </r>
   </si>
   <si>
-    <t>Zuweisung von einer Person zu einer Aufgabe</t>
-  </si>
-  <si>
     <t>Graphische Darstellungen</t>
   </si>
   <si>
@@ -158,12 +154,15 @@
   </si>
   <si>
     <t>Gesamt Entwicklungszeit (h)</t>
+  </si>
+  <si>
+    <t>Zuweisung von einer Person zu einer Aufgabe bzw. Aktivität</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -263,7 +262,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -574,36 +573,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="67.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -611,7 +610,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -626,7 +625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -641,7 +640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -656,7 +655,7 @@
         <v>-4.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -671,7 +670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -686,7 +685,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -701,7 +700,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -716,7 +715,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -731,7 +730,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -746,7 +745,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>10</v>
       </c>
@@ -761,9 +760,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="8">
         <f>SUM(B4:B13)</f>
@@ -778,12 +777,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -791,7 +790,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -799,14 +798,14 @@
         <v>20</v>
       </c>
       <c r="C17" s="6">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D17" s="6">
         <f>C17-B17</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -814,14 +813,14 @@
         <v>12</v>
       </c>
       <c r="C18" s="6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" ref="D18:D20" si="1">C18-B18</f>
-        <v>-12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -836,9 +835,9 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B20" s="6">
         <v>8</v>
@@ -851,9 +850,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="8">
         <f>SUM(B17:B20)</f>
@@ -861,29 +860,29 @@
       </c>
       <c r="C21" s="8">
         <f t="shared" ref="C21" si="2">SUM(C17:C20)</f>
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="D21" s="8">
         <f>SUM(D17:D20)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="6">
         <v>10</v>
@@ -896,9 +895,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="6">
         <v>12</v>
@@ -911,39 +910,39 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="6">
         <v>20</v>
       </c>
       <c r="C26" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="3"/>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" s="6">
         <v>20</v>
       </c>
       <c r="C27" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" si="3"/>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="8">
         <f>SUM(B24:B27)</f>
@@ -951,42 +950,44 @@
       </c>
       <c r="C28" s="8">
         <f t="shared" ref="C28" si="4">SUM(C24:C27)</f>
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D28" s="8">
         <f>SUM(D24:D27)</f>
-        <v>-33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="6">
         <v>15</v>
       </c>
-      <c r="C31" s="6"/>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
       <c r="D31" s="6">
         <f>C31-B31</f>
         <v>-15</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" s="8">
         <f>SUM(B31)</f>
@@ -1001,22 +1002,22 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B35" s="6">
         <v>30</v>
@@ -1027,9 +1028,9 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36" s="6">
         <v>30</v>
@@ -1040,9 +1041,9 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B37" s="8">
         <f>SUM(B35:B36)</f>
@@ -1057,9 +1058,9 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B40" s="10">
         <f t="shared" ref="B40" si="7">B37+B32+B21+B14+B28</f>
@@ -1068,7 +1069,7 @@
       <c r="C40" s="10"/>
       <c r="D40" s="10">
         <f>D37+D32+D21+D14+D28</f>
-        <v>-78</v>
+        <v>-43</v>
       </c>
     </row>
   </sheetData>
@@ -1078,12 +1079,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
